--- a/data_quarter/zb/人民生活/农村居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/农村居民人均收入情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,41 @@
           <t>农村居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配工资性收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配收入中位数</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配经营净收入</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配财产净收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均可支配转移净收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -523,69 +553,117 @@
         <v>464.9</v>
       </c>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>1082.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2652.91</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>1033.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>464.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2926.7</v>
+        <v>1936</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>6775.27</v>
+        <v>4528.3</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2427</v>
+        <v>1622.9</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>154.9</v>
+        <v>109.3</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1266.7</v>
+        <v>860.1</v>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>853.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1875.39</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>589.4000000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>395.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1936</v>
+        <v>2926.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>4528.3</v>
+        <v>6775.27</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1622.9</v>
+        <v>2427</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>109.3</v>
+        <v>154.9</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>860.1</v>
+        <v>1266.7</v>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>990.6999999999998</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2246.97</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>804.0999999999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>45.60000000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>406.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -610,11 +688,27 @@
         <v>1647.53</v>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>725.8000000000002</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2654.289999999999</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>1507.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="S5" t="n">
+        <v>380.8299999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -649,89 +743,137 @@
       <c r="M6" t="n">
         <v>17.8</v>
       </c>
+      <c r="N6" t="n">
+        <v>1249.12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2980.25</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1100.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>83.06999999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>547.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3305.75</v>
+        <v>2226.95</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>7574.34</v>
+        <v>5073.46</v>
       </c>
       <c r="E7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2647.37</v>
+        <v>1724.81</v>
       </c>
       <c r="I7" t="n">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="J7" t="n">
-        <v>175.53</v>
+        <v>127.19</v>
       </c>
       <c r="K7" t="n">
-        <v>13.3</v>
+        <v>16.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1445.68</v>
+        <v>994.51</v>
       </c>
       <c r="M7" t="n">
-        <v>14.1</v>
+        <v>15.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>977.8299999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2093.21</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>624.46</v>
+      </c>
+      <c r="R7" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>446.8099999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2226.95</v>
+        <v>3305.75</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>5073.46</v>
+        <v>7574.34</v>
       </c>
       <c r="E8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1724.81</v>
+        <v>2647.37</v>
       </c>
       <c r="I8" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="J8" t="n">
-        <v>127.19</v>
+        <v>175.53</v>
       </c>
       <c r="K8" t="n">
-        <v>16.4</v>
+        <v>13.3</v>
       </c>
       <c r="L8" t="n">
-        <v>994.51</v>
+        <v>1445.68</v>
       </c>
       <c r="M8" t="n">
-        <v>15.6</v>
+        <v>14.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1078.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2500.88</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>922.5599999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>451.1700000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -766,11 +908,27 @@
       <c r="M9" t="n">
         <v>13.9</v>
       </c>
+      <c r="N9" t="n">
+        <v>846.4499999999998</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2914.539999999999</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>1590.02</v>
+      </c>
+      <c r="R9" t="n">
+        <v>46.53999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>431.54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -805,89 +963,137 @@
       <c r="M10" t="n">
         <v>12.2</v>
       </c>
+      <c r="N10" t="n">
+        <v>1400.73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3279.12</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>1174.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="S10" t="n">
+        <v>614.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3664.20768877799</v>
+        <v>2487.47</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="D11" t="n">
-        <v>8297.18185738695</v>
+        <v>5553.8</v>
       </c>
       <c r="E11" t="n">
-        <v>8.094768015794671</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>2837.08712434721</v>
+        <v>1833.59</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="J11" t="n">
-        <v>194.315193841622</v>
+        <v>145.14</v>
       </c>
       <c r="K11" t="n">
-        <v>10.7</v>
+        <v>14.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1601.57185042013</v>
+        <v>1087.59</v>
       </c>
       <c r="M11" t="n">
-        <v>10.8</v>
+        <v>9.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1086.74</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2274.68</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>659.27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>55.47999999999999</v>
+      </c>
+      <c r="S11" t="n">
+        <v>473.1799999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2487.47</v>
+        <v>3664.20768877799</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="D12" t="n">
-        <v>5553.8</v>
+        <v>8297.18185738695</v>
       </c>
       <c r="E12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.094768015794671</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1833.59</v>
+        <v>2837.08712434721</v>
       </c>
       <c r="I12" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>145.14</v>
+        <v>194.315193841622</v>
       </c>
       <c r="K12" t="n">
-        <v>14.1</v>
+        <v>10.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1087.59</v>
+        <v>1601.57185042013</v>
       </c>
       <c r="M12" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1176.73768877799</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2743.381857386949</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>1003.49712434721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>49.17519384162202</v>
+      </c>
+      <c r="S12" t="n">
+        <v>513.9818504201301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -922,11 +1128,27 @@
       <c r="M13" t="n">
         <v>10.1</v>
       </c>
+      <c r="N13" t="n">
+        <v>936.0990707198403</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3124.52476011975</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>1666.488301278499</v>
+      </c>
+      <c r="R13" t="n">
+        <v>57.21253559363498</v>
+      </c>
+      <c r="S13" t="n">
+        <v>464.7248525278301</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -961,89 +1183,137 @@
       <c r="M14" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="N14" t="n">
+        <v>1532.58611229034</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3578.13738041064</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1282.28619386203</v>
+      </c>
+      <c r="R14" t="n">
+        <v>95.70473862867991</v>
+      </c>
+      <c r="S14" t="n">
+        <v>667.56033562962</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3994.766455</v>
+        <v>2732</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>8997.608184000001</v>
+        <v>6050</v>
       </c>
       <c r="E15" t="n">
-        <v>6.483300589</v>
+        <v>6.7</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>3035.460958</v>
+        <v>1990</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
-        <v>212.0394446</v>
+        <v>157</v>
       </c>
       <c r="K15" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1755.341327</v>
+        <v>1171</v>
       </c>
       <c r="M15" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1199.41388770966</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2471.86261958936</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>707.7138061379701</v>
+      </c>
+      <c r="R15" t="n">
+        <v>61.29526137132009</v>
+      </c>
+      <c r="S15" t="n">
+        <v>503.43966437038</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2732</v>
+        <v>3994.766455</v>
       </c>
       <c r="C16" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>6050</v>
+        <v>8997.608184000001</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7</v>
+        <v>6.483300589</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>1990</v>
+        <v>3035.460958</v>
       </c>
       <c r="I16" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>157</v>
+        <v>212.0394446</v>
       </c>
       <c r="K16" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1171</v>
+        <v>1755.341327</v>
       </c>
       <c r="M16" t="n">
-        <v>7.7</v>
+        <v>9.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1262.766455</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2947.608184000001</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1045.460958</v>
+      </c>
+      <c r="R16" t="n">
+        <v>55.0394446</v>
+      </c>
+      <c r="S16" t="n">
+        <v>584.3413270000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1078,11 +1348,27 @@
       <c r="M17" t="n">
         <v>12.7</v>
       </c>
+      <c r="N17" t="n">
+        <v>1027.233545</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3365.391815999999</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>1705.539042</v>
+      </c>
+      <c r="R17" t="n">
+        <v>59.9605554</v>
+      </c>
+      <c r="S17" t="n">
+        <v>572.6586729999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1121,97 +1407,151 @@
       <c r="M18" t="n">
         <v>11.7</v>
       </c>
+      <c r="N18" t="n">
+        <v>1670</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3880</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3060</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1361</v>
+      </c>
+      <c r="R18" t="n">
+        <v>104</v>
+      </c>
+      <c r="S18" t="n">
+        <v>746</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4380.063219</v>
+        <v>2979.724702</v>
       </c>
       <c r="C19" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="D19" t="n">
-        <v>9777.744264000001</v>
+        <v>6561.841121</v>
       </c>
       <c r="E19" t="n">
-        <v>7.517309595</v>
+        <v>7.425742574</v>
       </c>
       <c r="F19" t="n">
-        <v>8466</v>
+        <v>5558.9</v>
       </c>
       <c r="G19" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>3194.111569</v>
+        <v>2079.630145</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>234.227853</v>
+        <v>173.059952</v>
       </c>
       <c r="K19" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1969.341624</v>
+        <v>1329.426322</v>
       </c>
       <c r="M19" t="n">
-        <v>12.2</v>
+        <v>13.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1309.724702</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2681.841121</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2498.9</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>718.6301450000001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>69.05995200000001</v>
+      </c>
+      <c r="S19" t="n">
+        <v>583.426322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2979.724702</v>
+        <v>4380.063219</v>
       </c>
       <c r="C20" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="D20" t="n">
-        <v>6561.841121</v>
+        <v>9777.744264000001</v>
       </c>
       <c r="E20" t="n">
-        <v>7.425742574</v>
+        <v>7.517309595</v>
       </c>
       <c r="F20" t="n">
-        <v>5558.9</v>
+        <v>8466</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2079.630145</v>
+        <v>3194.111569</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>173.059952</v>
+        <v>234.227853</v>
       </c>
       <c r="K20" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1329.426322</v>
+        <v>1969.341624</v>
       </c>
       <c r="M20" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1400.338517</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3215.903143</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2907.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1114.481424</v>
+      </c>
+      <c r="R20" t="n">
+        <v>61.167901</v>
+      </c>
+      <c r="S20" t="n">
+        <v>639.9153019999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1250,11 +1590,29 @@
       <c r="M21" t="n">
         <v>11.8</v>
       </c>
+      <c r="N21" t="n">
+        <v>1118.355218000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3654.681445999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3502.955</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1833.703794</v>
+      </c>
+      <c r="R21" t="n">
+        <v>68.73620400000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>633.8862260000003</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1293,97 +1651,151 @@
       <c r="M22" t="n">
         <v>9.5</v>
       </c>
+      <c r="N22" t="n">
+        <v>1843</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4226</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3363.035</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1449</v>
+      </c>
+      <c r="R22" t="n">
+        <v>118</v>
+      </c>
+      <c r="S22" t="n">
+        <v>816</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4791</v>
+        <v>3263</v>
       </c>
       <c r="C23" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="D23" t="n">
-        <v>10645</v>
+        <v>7142</v>
       </c>
       <c r="E23" t="n">
         <v>6.8</v>
       </c>
       <c r="F23" t="n">
-        <v>9248.1</v>
+        <v>6045</v>
       </c>
       <c r="G23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>3384</v>
+        <v>2206</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J23" t="n">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2203</v>
+        <v>1475</v>
       </c>
       <c r="M23" t="n">
-        <v>11.9</v>
+        <v>11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1420</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2916</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2681.965</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>757</v>
+      </c>
+      <c r="R23" t="n">
+        <v>80</v>
+      </c>
+      <c r="S23" t="n">
+        <v>659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3263</v>
+        <v>4791</v>
       </c>
       <c r="C24" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D24" t="n">
-        <v>7142</v>
+        <v>10645</v>
       </c>
       <c r="E24" t="n">
         <v>6.8</v>
       </c>
       <c r="F24" t="n">
-        <v>6045</v>
+        <v>9248.1</v>
       </c>
       <c r="G24" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2206</v>
+        <v>3384</v>
       </c>
       <c r="I24" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="K24" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1475</v>
+        <v>2203</v>
       </c>
       <c r="M24" t="n">
-        <v>11</v>
+        <v>11.9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1528</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3503</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3203.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1178</v>
+      </c>
+      <c r="R24" t="n">
+        <v>69</v>
+      </c>
+      <c r="S24" t="n">
+        <v>728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1422,11 +1834,29 @@
       <c r="M25" t="n">
         <v>12.2</v>
       </c>
+      <c r="N25" t="n">
+        <v>1205</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3972</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3817.495999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R25" t="n">
+        <v>75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>717</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1465,97 +1895,151 @@
       <c r="M26" t="n">
         <v>13.3</v>
       </c>
+      <c r="N26" t="n">
+        <v>2009.1681887846</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4599.5632657964</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3663.33333333333</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1534.9555703437</v>
+      </c>
+      <c r="R26" t="n">
+        <v>130.1104714484</v>
+      </c>
+      <c r="S26" t="n">
+        <v>925.3290352197</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5239.5989578943</v>
+        <v>3560.3571699221</v>
       </c>
       <c r="C27" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="D27" t="n">
-        <v>11621.5679276291</v>
+        <v>7778.4186302645</v>
       </c>
       <c r="E27" t="n">
-        <v>6.432748538</v>
+        <v>6.5557729941</v>
       </c>
       <c r="F27" t="n">
-        <v>10171.5</v>
+        <v>6600.94</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3625.721491649</v>
+        <v>2343.0000171008</v>
       </c>
       <c r="I27" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J27" t="n">
-        <v>293.1459809318</v>
+        <v>216.519607149</v>
       </c>
       <c r="K27" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L27" t="n">
-        <v>2463.1014971541</v>
+        <v>1658.5418360926</v>
       </c>
       <c r="M27" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1551.1889811375</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3178.855364468101</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2937.60666666667</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>808.0444467571001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>86.40913570059999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>733.2128008729001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3560.3571699221</v>
+        <v>5239.5989578943</v>
       </c>
       <c r="C28" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="D28" t="n">
-        <v>7778.4186302645</v>
+        <v>11621.5679276291</v>
       </c>
       <c r="E28" t="n">
-        <v>6.5557729941</v>
+        <v>6.432748538</v>
       </c>
       <c r="F28" t="n">
-        <v>6600.94</v>
+        <v>10171.5</v>
       </c>
       <c r="G28" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>2343.0000171008</v>
+        <v>3625.721491649</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J28" t="n">
-        <v>216.519607149</v>
+        <v>293.1459809318</v>
       </c>
       <c r="K28" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>1658.5418360926</v>
+        <v>2463.1014971541</v>
       </c>
       <c r="M28" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1679.2417879722</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3843.149297364599</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3570.56</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1282.7214745482</v>
+      </c>
+      <c r="R28" t="n">
+        <v>76.62637378280002</v>
+      </c>
+      <c r="S28" t="n">
+        <v>804.5596610614998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1594,11 +2078,29 @@
       <c r="M29" t="n">
         <v>12.9</v>
       </c>
+      <c r="N29" t="n">
+        <v>1343.4010421057</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4399.432072370901</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4217.7133333333</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2136.278508351</v>
+      </c>
+      <c r="R29" t="n">
+        <v>83.85401906819999</v>
+      </c>
+      <c r="S29" t="n">
+        <v>834.8985028459001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1637,97 +2139,151 @@
       <c r="M30" t="n">
         <v>7.4</v>
       </c>
+      <c r="N30" t="n">
+        <v>1997</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4641</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3625</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1518</v>
+      </c>
+      <c r="R30" t="n">
+        <v>132</v>
+      </c>
+      <c r="S30" t="n">
+        <v>994</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5484</v>
+        <v>3654</v>
       </c>
       <c r="C31" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="D31" t="n">
-        <v>12297</v>
+        <v>8069</v>
       </c>
       <c r="E31" t="n">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="F31" t="n">
-        <v>10650</v>
+        <v>6682</v>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3788</v>
+        <v>2384</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="K31" t="n">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="L31" t="n">
-        <v>2703</v>
+        <v>1799</v>
       </c>
       <c r="M31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1657</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3428</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3057</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>866</v>
+      </c>
+      <c r="R31" t="n">
+        <v>99</v>
+      </c>
+      <c r="S31" t="n">
+        <v>805</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3654</v>
+        <v>5484</v>
       </c>
       <c r="C32" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="D32" t="n">
-        <v>8069</v>
+        <v>12297</v>
       </c>
       <c r="E32" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="F32" t="n">
-        <v>6682</v>
+        <v>10650</v>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2384</v>
+        <v>3788</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="K32" t="n">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1799</v>
+        <v>2703</v>
       </c>
       <c r="M32" t="n">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1830</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4228</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3968</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1404</v>
+      </c>
+      <c r="R32" t="n">
+        <v>92</v>
+      </c>
+      <c r="S32" t="n">
+        <v>904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1766,11 +2322,29 @@
       <c r="M33" t="n">
         <v>11</v>
       </c>
+      <c r="N33" t="n">
+        <v>1490</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4834</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4554</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2289</v>
+      </c>
+      <c r="R33" t="n">
+        <v>96</v>
+      </c>
+      <c r="S33" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1809,97 +2383,151 @@
       <c r="M34" t="n">
         <v>13.8</v>
       </c>
+      <c r="N34" t="n">
+        <v>2391</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5398</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4340</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1724</v>
+      </c>
+      <c r="R34" t="n">
+        <v>153</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6325</v>
+        <v>4348</v>
       </c>
       <c r="C35" t="n">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>13726</v>
+        <v>9248</v>
       </c>
       <c r="E35" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7956</v>
+      </c>
+      <c r="G35" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2635</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>266</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M35" t="n">
         <v>11.2</v>
       </c>
-      <c r="F35" t="n">
-        <v>11962</v>
-      </c>
-      <c r="G35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4042</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>357</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3002</v>
-      </c>
-      <c r="M35" t="n">
-        <v>11</v>
+      <c r="N35" t="n">
+        <v>1957</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3850</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3616</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>911</v>
+      </c>
+      <c r="R35" t="n">
+        <v>113</v>
+      </c>
+      <c r="S35" t="n">
+        <v>869</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4348</v>
+        <v>6325</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>15.3</v>
       </c>
       <c r="D36" t="n">
-        <v>9248</v>
+        <v>13726</v>
       </c>
       <c r="E36" t="n">
-        <v>14.1</v>
+        <v>11.2</v>
       </c>
       <c r="F36" t="n">
-        <v>7956</v>
+        <v>11962</v>
       </c>
       <c r="G36" t="n">
-        <v>19.1</v>
+        <v>12.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2635</v>
+        <v>4042</v>
       </c>
       <c r="I36" t="n">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="J36" t="n">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>10.7</v>
       </c>
       <c r="L36" t="n">
-        <v>2000</v>
+        <v>3002</v>
       </c>
       <c r="M36" t="n">
-        <v>11.2</v>
+        <v>11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4478</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4006</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1407</v>
+      </c>
+      <c r="R36" t="n">
+        <v>91</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1926,6 +2554,22 @@
         <v>3937.21</v>
       </c>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1633.14</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5204.889999999999</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>2524.15</v>
+      </c>
+      <c r="R37" t="n">
+        <v>112.39</v>
+      </c>
+      <c r="S37" t="n">
+        <v>935.21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/农村居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/农村居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,36 +494,6 @@
           <t>农村居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配工资性收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配收入中位数</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配经营净收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配财产净收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均可支配转移净收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,112 +523,64 @@
         <v>464.9</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>1082.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2652.91</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>1033.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>464.9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1936</v>
+        <v>2926.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>4528.3</v>
+        <v>6775.27</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1622.9</v>
+        <v>2427</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>109.3</v>
+        <v>154.9</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>860.1</v>
+        <v>1266.7</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>853.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1875.39</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>589.4000000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>395.2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2926.7</v>
+        <v>1936</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>6775.27</v>
+        <v>4528.3</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2427</v>
+        <v>1622.9</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>154.9</v>
+        <v>109.3</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1266.7</v>
+        <v>860.1</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>990.6999999999998</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2246.97</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>804.0999999999999</v>
-      </c>
-      <c r="R4" t="n">
-        <v>45.60000000000001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>406.6</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -688,22 +610,6 @@
         <v>1647.53</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>725.8000000000002</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2654.289999999999</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>1507.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="S5" t="n">
-        <v>380.8299999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -743,131 +649,83 @@
       <c r="M6" t="n">
         <v>17.8</v>
       </c>
-      <c r="N6" t="n">
-        <v>1249.12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2980.25</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>1100.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>83.06999999999999</v>
-      </c>
-      <c r="S6" t="n">
-        <v>547.7</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2226.95</v>
+        <v>3305.75</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>5073.46</v>
+        <v>7574.34</v>
       </c>
       <c r="E7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1724.81</v>
+        <v>2647.37</v>
       </c>
       <c r="I7" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="J7" t="n">
-        <v>127.19</v>
+        <v>175.53</v>
       </c>
       <c r="K7" t="n">
-        <v>16.4</v>
+        <v>13.3</v>
       </c>
       <c r="L7" t="n">
-        <v>994.51</v>
+        <v>1445.68</v>
       </c>
       <c r="M7" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>977.8299999999999</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2093.21</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>624.46</v>
-      </c>
-      <c r="R7" t="n">
-        <v>44.12</v>
-      </c>
-      <c r="S7" t="n">
-        <v>446.8099999999999</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3305.75</v>
+        <v>2226.95</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>7574.34</v>
+        <v>5073.46</v>
       </c>
       <c r="E8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2647.37</v>
+        <v>1724.81</v>
       </c>
       <c r="I8" t="n">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="J8" t="n">
-        <v>175.53</v>
+        <v>127.19</v>
       </c>
       <c r="K8" t="n">
-        <v>13.3</v>
+        <v>16.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1445.68</v>
+        <v>994.51</v>
       </c>
       <c r="M8" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1078.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2500.88</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>922.5599999999999</v>
-      </c>
-      <c r="R8" t="n">
-        <v>48.34</v>
-      </c>
-      <c r="S8" t="n">
-        <v>451.1700000000001</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="9">
@@ -908,22 +766,6 @@
       <c r="M9" t="n">
         <v>13.9</v>
       </c>
-      <c r="N9" t="n">
-        <v>846.4499999999998</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2914.539999999999</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>1590.02</v>
-      </c>
-      <c r="R9" t="n">
-        <v>46.53999999999999</v>
-      </c>
-      <c r="S9" t="n">
-        <v>431.54</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -963,131 +805,83 @@
       <c r="M10" t="n">
         <v>12.2</v>
       </c>
-      <c r="N10" t="n">
-        <v>1400.73</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3279.12</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1174.32</v>
-      </c>
-      <c r="R10" t="n">
-        <v>89.66</v>
-      </c>
-      <c r="S10" t="n">
-        <v>614.41</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2487.47</v>
+        <v>3664.20768877799</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>5553.8</v>
+        <v>8297.18185738695</v>
       </c>
       <c r="E11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.094768015794671</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1833.59</v>
+        <v>2837.08712434721</v>
       </c>
       <c r="I11" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>145.14</v>
+        <v>194.315193841622</v>
       </c>
       <c r="K11" t="n">
-        <v>14.1</v>
+        <v>10.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1087.59</v>
+        <v>1601.57185042013</v>
       </c>
       <c r="M11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1086.74</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2274.68</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>659.27</v>
-      </c>
-      <c r="R11" t="n">
-        <v>55.47999999999999</v>
-      </c>
-      <c r="S11" t="n">
-        <v>473.1799999999999</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3664.20768877799</v>
+        <v>2487.47</v>
       </c>
       <c r="C12" t="n">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="D12" t="n">
-        <v>8297.18185738695</v>
+        <v>5553.8</v>
       </c>
       <c r="E12" t="n">
-        <v>8.094768015794671</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>2837.08712434721</v>
+        <v>1833.59</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="J12" t="n">
-        <v>194.315193841622</v>
+        <v>145.14</v>
       </c>
       <c r="K12" t="n">
-        <v>10.7</v>
+        <v>14.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1601.57185042013</v>
+        <v>1087.59</v>
       </c>
       <c r="M12" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1176.73768877799</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2743.381857386949</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>1003.49712434721</v>
-      </c>
-      <c r="R12" t="n">
-        <v>49.17519384162202</v>
-      </c>
-      <c r="S12" t="n">
-        <v>513.9818504201301</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="13">
@@ -1128,22 +922,6 @@
       <c r="M13" t="n">
         <v>10.1</v>
       </c>
-      <c r="N13" t="n">
-        <v>936.0990707198403</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3124.52476011975</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1666.488301278499</v>
-      </c>
-      <c r="R13" t="n">
-        <v>57.21253559363498</v>
-      </c>
-      <c r="S13" t="n">
-        <v>464.7248525278301</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1183,131 +961,83 @@
       <c r="M14" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N14" t="n">
-        <v>1532.58611229034</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3578.13738041064</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>1282.28619386203</v>
-      </c>
-      <c r="R14" t="n">
-        <v>95.70473862867991</v>
-      </c>
-      <c r="S14" t="n">
-        <v>667.56033562962</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2732</v>
+        <v>3994.766455</v>
       </c>
       <c r="C15" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6050</v>
+        <v>8997.608184000001</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7</v>
+        <v>6.483300589</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>1990</v>
+        <v>3035.460958</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>157</v>
+        <v>212.0394446</v>
       </c>
       <c r="K15" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1171</v>
+        <v>1755.341327</v>
       </c>
       <c r="M15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1199.41388770966</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2471.86261958936</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>707.7138061379701</v>
-      </c>
-      <c r="R15" t="n">
-        <v>61.29526137132009</v>
-      </c>
-      <c r="S15" t="n">
-        <v>503.43966437038</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3994.766455</v>
+        <v>2732</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>8997.608184000001</v>
+        <v>6050</v>
       </c>
       <c r="E16" t="n">
-        <v>6.483300589</v>
+        <v>6.7</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>3035.460958</v>
+        <v>1990</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J16" t="n">
-        <v>212.0394446</v>
+        <v>157</v>
       </c>
       <c r="K16" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1755.341327</v>
+        <v>1171</v>
       </c>
       <c r="M16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1262.766455</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2947.608184000001</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1045.460958</v>
-      </c>
-      <c r="R16" t="n">
-        <v>55.0394446</v>
-      </c>
-      <c r="S16" t="n">
-        <v>584.3413270000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="17">
@@ -1348,22 +1078,6 @@
       <c r="M17" t="n">
         <v>12.7</v>
       </c>
-      <c r="N17" t="n">
-        <v>1027.233545</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3365.391815999999</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>1705.539042</v>
-      </c>
-      <c r="R17" t="n">
-        <v>59.9605554</v>
-      </c>
-      <c r="S17" t="n">
-        <v>572.6586729999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1407,145 +1121,91 @@
       <c r="M18" t="n">
         <v>11.7</v>
       </c>
-      <c r="N18" t="n">
-        <v>1670</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3880</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3060</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1361</v>
-      </c>
-      <c r="R18" t="n">
-        <v>104</v>
-      </c>
-      <c r="S18" t="n">
-        <v>746</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2979.724702</v>
+        <v>4380.063219</v>
       </c>
       <c r="C19" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="D19" t="n">
-        <v>6561.841121</v>
+        <v>9777.744264000001</v>
       </c>
       <c r="E19" t="n">
-        <v>7.425742574</v>
+        <v>7.517309595</v>
       </c>
       <c r="F19" t="n">
-        <v>5558.9</v>
+        <v>8466</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2079.630145</v>
+        <v>3194.111569</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
-        <v>173.059952</v>
+        <v>234.227853</v>
       </c>
       <c r="K19" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1329.426322</v>
+        <v>1969.341624</v>
       </c>
       <c r="M19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1309.724702</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2681.841121</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2498.9</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>718.6301450000001</v>
-      </c>
-      <c r="R19" t="n">
-        <v>69.05995200000001</v>
-      </c>
-      <c r="S19" t="n">
-        <v>583.426322</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4380.063219</v>
+        <v>2979.724702</v>
       </c>
       <c r="C20" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="D20" t="n">
-        <v>9777.744264000001</v>
+        <v>6561.841121</v>
       </c>
       <c r="E20" t="n">
-        <v>7.517309595</v>
+        <v>7.425742574</v>
       </c>
       <c r="F20" t="n">
-        <v>8466</v>
+        <v>5558.9</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>3194.111569</v>
+        <v>2079.630145</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>234.227853</v>
+        <v>173.059952</v>
       </c>
       <c r="K20" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1969.341624</v>
+        <v>1329.426322</v>
       </c>
       <c r="M20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1400.338517</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3215.903143</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2907.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1114.481424</v>
-      </c>
-      <c r="R20" t="n">
-        <v>61.167901</v>
-      </c>
-      <c r="S20" t="n">
-        <v>639.9153019999999</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="21">
@@ -1590,24 +1250,6 @@
       <c r="M21" t="n">
         <v>11.8</v>
       </c>
-      <c r="N21" t="n">
-        <v>1118.355218000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3654.681445999999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3502.955</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1833.703794</v>
-      </c>
-      <c r="R21" t="n">
-        <v>68.73620400000001</v>
-      </c>
-      <c r="S21" t="n">
-        <v>633.8862260000003</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1651,145 +1293,91 @@
       <c r="M22" t="n">
         <v>9.5</v>
       </c>
-      <c r="N22" t="n">
-        <v>1843</v>
-      </c>
-      <c r="O22" t="n">
-        <v>4226</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3363.035</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1449</v>
-      </c>
-      <c r="R22" t="n">
-        <v>118</v>
-      </c>
-      <c r="S22" t="n">
-        <v>816</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3263</v>
+        <v>4791</v>
       </c>
       <c r="C23" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D23" t="n">
-        <v>7142</v>
+        <v>10645</v>
       </c>
       <c r="E23" t="n">
         <v>6.8</v>
       </c>
       <c r="F23" t="n">
-        <v>6045</v>
+        <v>9248.1</v>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2206</v>
+        <v>3384</v>
       </c>
       <c r="I23" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="K23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1475</v>
+        <v>2203</v>
       </c>
       <c r="M23" t="n">
-        <v>11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1420</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2916</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2681.965</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>757</v>
-      </c>
-      <c r="R23" t="n">
-        <v>80</v>
-      </c>
-      <c r="S23" t="n">
-        <v>659</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4791</v>
+        <v>3263</v>
       </c>
       <c r="C24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="D24" t="n">
-        <v>10645</v>
+        <v>7142</v>
       </c>
       <c r="E24" t="n">
         <v>6.8</v>
       </c>
       <c r="F24" t="n">
-        <v>9248.1</v>
+        <v>6045</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>3384</v>
+        <v>2206</v>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J24" t="n">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K24" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="L24" t="n">
-        <v>2203</v>
+        <v>1475</v>
       </c>
       <c r="M24" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1528</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3503</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3203.1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1178</v>
-      </c>
-      <c r="R24" t="n">
-        <v>69</v>
-      </c>
-      <c r="S24" t="n">
-        <v>728</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1834,24 +1422,6 @@
       <c r="M25" t="n">
         <v>12.2</v>
       </c>
-      <c r="N25" t="n">
-        <v>1205</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3972</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3817.495999999999</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1974</v>
-      </c>
-      <c r="R25" t="n">
-        <v>75</v>
-      </c>
-      <c r="S25" t="n">
-        <v>717</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1895,145 +1465,91 @@
       <c r="M26" t="n">
         <v>13.3</v>
       </c>
-      <c r="N26" t="n">
-        <v>2009.1681887846</v>
-      </c>
-      <c r="O26" t="n">
-        <v>4599.5632657964</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3663.33333333333</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1534.9555703437</v>
-      </c>
-      <c r="R26" t="n">
-        <v>130.1104714484</v>
-      </c>
-      <c r="S26" t="n">
-        <v>925.3290352197</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3560.3571699221</v>
+        <v>5239.5989578943</v>
       </c>
       <c r="C27" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="D27" t="n">
-        <v>7778.4186302645</v>
+        <v>11621.5679276291</v>
       </c>
       <c r="E27" t="n">
-        <v>6.5557729941</v>
+        <v>6.432748538</v>
       </c>
       <c r="F27" t="n">
-        <v>6600.94</v>
+        <v>10171.5</v>
       </c>
       <c r="G27" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>2343.0000171008</v>
+        <v>3625.721491649</v>
       </c>
       <c r="I27" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>216.519607149</v>
+        <v>293.1459809318</v>
       </c>
       <c r="K27" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>1658.5418360926</v>
+        <v>2463.1014971541</v>
       </c>
       <c r="M27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1551.1889811375</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3178.855364468101</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2937.60666666667</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>808.0444467571001</v>
-      </c>
-      <c r="R27" t="n">
-        <v>86.40913570059999</v>
-      </c>
-      <c r="S27" t="n">
-        <v>733.2128008729001</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5239.5989578943</v>
+        <v>3560.3571699221</v>
       </c>
       <c r="C28" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="D28" t="n">
-        <v>11621.5679276291</v>
+        <v>7778.4186302645</v>
       </c>
       <c r="E28" t="n">
-        <v>6.432748538</v>
+        <v>6.5557729941</v>
       </c>
       <c r="F28" t="n">
-        <v>10171.5</v>
+        <v>6600.94</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>3625.721491649</v>
+        <v>2343.0000171008</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>293.1459809318</v>
+        <v>216.519607149</v>
       </c>
       <c r="K28" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L28" t="n">
-        <v>2463.1014971541</v>
+        <v>1658.5418360926</v>
       </c>
       <c r="M28" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1679.2417879722</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3843.149297364599</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3570.56</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1282.7214745482</v>
-      </c>
-      <c r="R28" t="n">
-        <v>76.62637378280002</v>
-      </c>
-      <c r="S28" t="n">
-        <v>804.5596610614998</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="29">
@@ -2078,24 +1594,6 @@
       <c r="M29" t="n">
         <v>12.9</v>
       </c>
-      <c r="N29" t="n">
-        <v>1343.4010421057</v>
-      </c>
-      <c r="O29" t="n">
-        <v>4399.432072370901</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4217.7133333333</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2136.278508351</v>
-      </c>
-      <c r="R29" t="n">
-        <v>83.85401906819999</v>
-      </c>
-      <c r="S29" t="n">
-        <v>834.8985028459001</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2139,145 +1637,91 @@
       <c r="M30" t="n">
         <v>7.4</v>
       </c>
-      <c r="N30" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O30" t="n">
-        <v>4641</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3625</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1518</v>
-      </c>
-      <c r="R30" t="n">
-        <v>132</v>
-      </c>
-      <c r="S30" t="n">
-        <v>994</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3654</v>
+        <v>5484</v>
       </c>
       <c r="C31" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="D31" t="n">
-        <v>8069</v>
+        <v>12297</v>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="F31" t="n">
-        <v>6682</v>
+        <v>10650</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2384</v>
+        <v>3788</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1799</v>
+        <v>2703</v>
       </c>
       <c r="M31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1657</v>
-      </c>
-      <c r="O31" t="n">
-        <v>3428</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3057</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>866</v>
-      </c>
-      <c r="R31" t="n">
-        <v>99</v>
-      </c>
-      <c r="S31" t="n">
-        <v>805</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5484</v>
+        <v>3654</v>
       </c>
       <c r="C32" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="D32" t="n">
-        <v>12297</v>
+        <v>8069</v>
       </c>
       <c r="E32" t="n">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>10650</v>
+        <v>6682</v>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3788</v>
+        <v>2384</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="K32" t="n">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="L32" t="n">
-        <v>2703</v>
+        <v>1799</v>
       </c>
       <c r="M32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1830</v>
-      </c>
-      <c r="O32" t="n">
-        <v>4228</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3968</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1404</v>
-      </c>
-      <c r="R32" t="n">
-        <v>92</v>
-      </c>
-      <c r="S32" t="n">
-        <v>904</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="33">
@@ -2322,24 +1766,6 @@
       <c r="M33" t="n">
         <v>11</v>
       </c>
-      <c r="N33" t="n">
-        <v>1490</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4834</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4554</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2289</v>
-      </c>
-      <c r="R33" t="n">
-        <v>96</v>
-      </c>
-      <c r="S33" t="n">
-        <v>958</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2383,145 +1809,91 @@
       <c r="M34" t="n">
         <v>13.8</v>
       </c>
-      <c r="N34" t="n">
-        <v>2391</v>
-      </c>
-      <c r="O34" t="n">
-        <v>5398</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4340</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1724</v>
-      </c>
-      <c r="R34" t="n">
-        <v>153</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1131</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4348</v>
+        <v>6325</v>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>15.3</v>
       </c>
       <c r="D35" t="n">
-        <v>9248</v>
+        <v>13726</v>
       </c>
       <c r="E35" t="n">
-        <v>14.1</v>
+        <v>11.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7956</v>
+        <v>11962</v>
       </c>
       <c r="G35" t="n">
-        <v>19.1</v>
+        <v>12.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2635</v>
+        <v>4042</v>
       </c>
       <c r="I35" t="n">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="J35" t="n">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>10.7</v>
       </c>
       <c r="L35" t="n">
-        <v>2000</v>
+        <v>3002</v>
       </c>
       <c r="M35" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1957</v>
-      </c>
-      <c r="O35" t="n">
-        <v>3850</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3616</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>911</v>
-      </c>
-      <c r="R35" t="n">
-        <v>113</v>
-      </c>
-      <c r="S35" t="n">
-        <v>869</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6325</v>
+        <v>4348</v>
       </c>
       <c r="C36" t="n">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>13726</v>
+        <v>9248</v>
       </c>
       <c r="E36" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7956</v>
+      </c>
+      <c r="G36" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2635</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>266</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M36" t="n">
         <v>11.2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>11962</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4042</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>357</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3002</v>
-      </c>
-      <c r="M36" t="n">
-        <v>11</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1977</v>
-      </c>
-      <c r="O36" t="n">
-        <v>4478</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4006</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1407</v>
-      </c>
-      <c r="R36" t="n">
-        <v>91</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1002</v>
       </c>
     </row>
     <row r="37">
@@ -2533,42 +1905,38 @@
       <c r="B37" t="n">
         <v>7958.14</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>14.1124714137</v>
+      </c>
       <c r="D37" t="n">
         <v>18930.89</v>
       </c>
       <c r="E37" t="n">
         <v>9.731876862</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>16902.0376142504</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.1683610514</v>
+      </c>
       <c r="H37" t="n">
         <v>6566.15</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>8.0416479316</v>
+      </c>
       <c r="J37" t="n">
         <v>469.39</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>12.0919682672</v>
+      </c>
       <c r="L37" t="n">
         <v>3937.21</v>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>1633.14</v>
-      </c>
-      <c r="O37" t="n">
-        <v>5204.889999999999</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>2524.15</v>
-      </c>
-      <c r="R37" t="n">
-        <v>112.39</v>
-      </c>
-      <c r="S37" t="n">
-        <v>935.21</v>
+      <c r="M37" t="n">
+        <v>7.5344462327</v>
       </c>
     </row>
   </sheetData>
